--- a/doors-detector/results/house21_experimentk_CriterionType.MIN_0.75.xlsx
+++ b/doors-detector/results/house21_experimentk_CriterionType.MIN_0.75.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6923030835566488</v>
+        <v>0.6851926347173879</v>
       </c>
       <c r="F5" t="n">
         <v>1290</v>
       </c>
       <c r="G5" t="n">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="H5" t="n">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4001035358780013</v>
+        <v>0.45650554794626</v>
       </c>
       <c r="F6" t="n">
         <v>113</v>
       </c>
       <c r="G6" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H6" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6919981937627688</v>
+        <v>0.6757112413096491</v>
       </c>
       <c r="F7" t="n">
         <v>283</v>
       </c>
       <c r="G7" t="n">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H7" t="n">
-        <v>504</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7298112426661959</v>
+        <v>0.7578408650659783</v>
       </c>
       <c r="F8" t="n">
         <v>1290</v>
       </c>
       <c r="G8" t="n">
-        <v>1024</v>
+        <v>1054</v>
       </c>
       <c r="H8" t="n">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.443908858491035</v>
+        <v>0.4206611624045996</v>
       </c>
       <c r="F9" t="n">
         <v>113</v>
       </c>
       <c r="G9" t="n">
+        <v>67</v>
+      </c>
+      <c r="H9" t="n">
         <v>73</v>
-      </c>
-      <c r="H9" t="n">
-        <v>103</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6970435163147702</v>
+        <v>0.6811122035552488</v>
       </c>
       <c r="F10" t="n">
         <v>283</v>
       </c>
       <c r="G10" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H10" t="n">
-        <v>394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7712074233145995</v>
+        <v>0.7429525269707057</v>
       </c>
       <c r="F11" t="n">
         <v>1290</v>
       </c>
       <c r="G11" t="n">
-        <v>1063</v>
+        <v>1039</v>
       </c>
       <c r="H11" t="n">
-        <v>227</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.4542466134204295</v>
+        <v>0.5012653727085421</v>
       </c>
       <c r="F12" t="n">
         <v>113</v>
       </c>
       <c r="G12" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H12" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6906754131952706</v>
+        <v>0.6999641129770842</v>
       </c>
       <c r="F13" t="n">
         <v>283</v>
       </c>
       <c r="G13" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="H13" t="n">
-        <v>422</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7387968088852775</v>
+        <v>0.8019924150956718</v>
       </c>
       <c r="F14" t="n">
         <v>1290</v>
       </c>
       <c r="G14" t="n">
-        <v>1036</v>
+        <v>1094</v>
       </c>
       <c r="H14" t="n">
-        <v>254</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5180571479013498</v>
+        <v>0.5280109688828316</v>
       </c>
       <c r="F15" t="n">
         <v>113</v>
       </c>
       <c r="G15" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="n">
         <v>88</v>
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6766253138504367</v>
+        <v>0.6685609687678065</v>
       </c>
       <c r="F16" t="n">
         <v>283</v>
       </c>
       <c r="G16" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H16" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7763422136415525</v>
+        <v>0.7458103335913325</v>
       </c>
       <c r="F17" t="n">
         <v>1290</v>
       </c>
       <c r="G17" t="n">
-        <v>1070</v>
+        <v>1040</v>
       </c>
       <c r="H17" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.474974767456229</v>
+        <v>0.5397950362166228</v>
       </c>
       <c r="F18" t="n">
         <v>113</v>
       </c>
       <c r="G18" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H18" t="n">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6870434868214105</v>
+        <v>0.6928338651450788</v>
       </c>
       <c r="F19" t="n">
         <v>283</v>
       </c>
       <c r="G19" t="n">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="H19" t="n">
-        <v>410</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20">
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.7793048305502125</v>
+        <v>0.7504863183245062</v>
       </c>
       <c r="F20" t="n">
         <v>1290</v>
       </c>
       <c r="G20" t="n">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="H20" t="n">
-        <v>220</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.5837328019745399</v>
+        <v>0.5274628404279179</v>
       </c>
       <c r="F21" t="n">
         <v>113</v>
       </c>
       <c r="G21" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H21" t="n">
-        <v>69</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.7111086580240062</v>
+        <v>0.6788081149723352</v>
       </c>
       <c r="F22" t="n">
         <v>283</v>
       </c>
       <c r="G22" t="n">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="H22" t="n">
-        <v>410</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23">
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.802438405116032</v>
+        <v>0.7847902793051165</v>
       </c>
       <c r="F23" t="n">
         <v>1290</v>
       </c>
       <c r="G23" t="n">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="H23" t="n">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
@@ -1199,16 +1199,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.5409248506045023</v>
+        <v>0.6013898544659644</v>
       </c>
       <c r="F24" t="n">
         <v>113</v>
       </c>
       <c r="G24" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H24" t="n">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
@@ -1231,16 +1231,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6985500800969994</v>
+        <v>0.7355302189967164</v>
       </c>
       <c r="F25" t="n">
         <v>283</v>
       </c>
       <c r="G25" t="n">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="H25" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26">
@@ -1263,16 +1263,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.7721063514871636</v>
+        <v>0.804038363815449</v>
       </c>
       <c r="F26" t="n">
         <v>1290</v>
       </c>
       <c r="G26" t="n">
-        <v>1065</v>
+        <v>1093</v>
       </c>
       <c r="H26" t="n">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
@@ -1295,16 +1295,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.5870768589660502</v>
+        <v>0.5291251980154043</v>
       </c>
       <c r="F27" t="n">
         <v>113</v>
       </c>
       <c r="G27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H27" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -1327,16 +1327,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.7357771324213698</v>
+        <v>0.7199702401208606</v>
       </c>
       <c r="F28" t="n">
         <v>283</v>
       </c>
       <c r="G28" t="n">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H28" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
